--- a/mippe_base_32u4_v2/CPL_REV_A.xlsx
+++ b/mippe_base_32u4_v2/CPL_REV_A.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -37,106 +37,121 @@
     <t xml:space="preserve">Rotation</t>
   </si>
   <si>
+    <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.75mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1</t>
   </si>
   <si>
-    <t xml:space="preserve">24mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top</t>
+    <t xml:space="preserve">7.5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25mm</t>
   </si>
   <si>
     <t xml:space="preserve">C2</t>
   </si>
   <si>
-    <t xml:space="preserve">19.5mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.75mm</t>
+    <t xml:space="preserve">3mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.25mm</t>
   </si>
   <si>
     <t xml:space="preserve">C5</t>
   </si>
   <si>
-    <t xml:space="preserve">21.75mm</t>
+    <t xml:space="preserve">6.75mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.75mm</t>
   </si>
   <si>
     <t xml:space="preserve">C6</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.75mm</t>
+    <t xml:space="preserve">C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8</t>
   </si>
   <si>
     <t xml:space="preserve">C9</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.25mm</t>
-  </si>
-  <si>
     <t xml:space="preserve">R1</t>
   </si>
   <si>
-    <t xml:space="preserve">26.25mm</t>
+    <t xml:space="preserve">-5mm</t>
   </si>
   <si>
     <t xml:space="preserve">R2</t>
   </si>
   <si>
+    <t xml:space="preserve">6mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">R3</t>
   </si>
   <si>
-    <t xml:space="preserve">20.3mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2mm</t>
-  </si>
-  <si>
     <t xml:space="preserve">R4</t>
   </si>
   <si>
-    <t xml:space="preserve">12.75mm</t>
+    <t xml:space="preserve">-1.5mm</t>
   </si>
   <si>
     <t xml:space="preserve">R5</t>
   </si>
   <si>
-    <t xml:space="preserve">15mm</t>
+    <t xml:space="preserve">5.5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.25mm</t>
   </si>
   <si>
     <t xml:space="preserve">R7</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.75mm</t>
+    <t xml:space="preserve">-4.5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3</t>
   </si>
 </sst>
 </file>
@@ -240,7 +255,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -257,7 +272,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -278,18 +297,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:AMJ29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="6.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="8.89"/>
   </cols>
@@ -353,7 +372,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
@@ -384,10 +403,10 @@
         <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
@@ -404,7 +423,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -415,13 +434,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
@@ -435,10 +454,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>8</v>
@@ -452,10 +471,10 @@
         <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
@@ -469,10 +488,10 @@
         <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
@@ -483,13 +502,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -500,10 +519,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -517,13 +536,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
@@ -534,10 +553,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>11</v>
@@ -551,69 +570,1180 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="A20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="A21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+      <c r="T22" s="0"/>
+      <c r="U22" s="0"/>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0"/>
+      <c r="X22" s="0"/>
+      <c r="Y22" s="0"/>
+      <c r="Z22" s="0"/>
+      <c r="AA22" s="0"/>
+      <c r="AB22" s="0"/>
+      <c r="AC22" s="0"/>
+      <c r="AD22" s="0"/>
+      <c r="AE22" s="0"/>
+      <c r="AF22" s="0"/>
+      <c r="AG22" s="0"/>
+      <c r="AH22" s="0"/>
+      <c r="AI22" s="0"/>
+      <c r="AJ22" s="0"/>
+      <c r="AK22" s="0"/>
+      <c r="AL22" s="0"/>
+      <c r="AM22" s="0"/>
+      <c r="AN22" s="0"/>
+      <c r="AO22" s="0"/>
+      <c r="AP22" s="0"/>
+      <c r="AQ22" s="0"/>
+      <c r="AR22" s="0"/>
+      <c r="AS22" s="0"/>
+      <c r="AT22" s="0"/>
+      <c r="AU22" s="0"/>
+      <c r="AV22" s="0"/>
+      <c r="AW22" s="0"/>
+      <c r="AX22" s="0"/>
+      <c r="AY22" s="0"/>
+      <c r="AZ22" s="0"/>
+      <c r="BA22" s="0"/>
+      <c r="BB22" s="0"/>
+      <c r="BC22" s="0"/>
+      <c r="BD22" s="0"/>
+      <c r="BE22" s="0"/>
+      <c r="BF22" s="0"/>
+      <c r="BG22" s="0"/>
+      <c r="BH22" s="0"/>
+      <c r="BI22" s="0"/>
+      <c r="BJ22" s="0"/>
+      <c r="BK22" s="0"/>
+      <c r="BL22" s="0"/>
+      <c r="BM22" s="0"/>
+      <c r="BN22" s="0"/>
+      <c r="BO22" s="0"/>
+      <c r="BP22" s="0"/>
+      <c r="BQ22" s="0"/>
+      <c r="BR22" s="0"/>
+      <c r="BS22" s="0"/>
+      <c r="BT22" s="0"/>
+      <c r="BU22" s="0"/>
+      <c r="BV22" s="0"/>
+      <c r="BW22" s="0"/>
+      <c r="BX22" s="0"/>
+      <c r="BY22" s="0"/>
+      <c r="BZ22" s="0"/>
+      <c r="CA22" s="0"/>
+      <c r="CB22" s="0"/>
+      <c r="CC22" s="0"/>
+      <c r="CD22" s="0"/>
+      <c r="CE22" s="0"/>
+      <c r="CF22" s="0"/>
+      <c r="CG22" s="0"/>
+      <c r="CH22" s="0"/>
+      <c r="CI22" s="0"/>
+      <c r="CJ22" s="0"/>
+      <c r="CK22" s="0"/>
+      <c r="CL22" s="0"/>
+      <c r="CM22" s="0"/>
+      <c r="CN22" s="0"/>
+      <c r="CO22" s="0"/>
+      <c r="CP22" s="0"/>
+      <c r="CQ22" s="0"/>
+      <c r="CR22" s="0"/>
+      <c r="CS22" s="0"/>
+      <c r="CT22" s="0"/>
+      <c r="CU22" s="0"/>
+      <c r="CV22" s="0"/>
+      <c r="CW22" s="0"/>
+      <c r="CX22" s="0"/>
+      <c r="CY22" s="0"/>
+      <c r="CZ22" s="0"/>
+      <c r="DA22" s="0"/>
+      <c r="DB22" s="0"/>
+      <c r="DC22" s="0"/>
+      <c r="DD22" s="0"/>
+      <c r="DE22" s="0"/>
+      <c r="DF22" s="0"/>
+      <c r="DG22" s="0"/>
+      <c r="DH22" s="0"/>
+      <c r="DI22" s="0"/>
+      <c r="DJ22" s="0"/>
+      <c r="DK22" s="0"/>
+      <c r="DL22" s="0"/>
+      <c r="DM22" s="0"/>
+      <c r="DN22" s="0"/>
+      <c r="DO22" s="0"/>
+      <c r="DP22" s="0"/>
+      <c r="DQ22" s="0"/>
+      <c r="DR22" s="0"/>
+      <c r="DS22" s="0"/>
+      <c r="DT22" s="0"/>
+      <c r="DU22" s="0"/>
+      <c r="DV22" s="0"/>
+      <c r="DW22" s="0"/>
+      <c r="DX22" s="0"/>
+      <c r="DY22" s="0"/>
+      <c r="DZ22" s="0"/>
+      <c r="EA22" s="0"/>
+      <c r="EB22" s="0"/>
+      <c r="EC22" s="0"/>
+      <c r="ED22" s="0"/>
+      <c r="EE22" s="0"/>
+      <c r="EF22" s="0"/>
+      <c r="EG22" s="0"/>
+      <c r="EH22" s="0"/>
+      <c r="EI22" s="0"/>
+      <c r="EJ22" s="0"/>
+      <c r="EK22" s="0"/>
+      <c r="EL22" s="0"/>
+      <c r="EM22" s="0"/>
+      <c r="EN22" s="0"/>
+      <c r="EO22" s="0"/>
+      <c r="EP22" s="0"/>
+      <c r="EQ22" s="0"/>
+      <c r="ER22" s="0"/>
+      <c r="ES22" s="0"/>
+      <c r="ET22" s="0"/>
+      <c r="EU22" s="0"/>
+      <c r="EV22" s="0"/>
+      <c r="EW22" s="0"/>
+      <c r="EX22" s="0"/>
+      <c r="EY22" s="0"/>
+      <c r="EZ22" s="0"/>
+      <c r="FA22" s="0"/>
+      <c r="FB22" s="0"/>
+      <c r="FC22" s="0"/>
+      <c r="FD22" s="0"/>
+      <c r="FE22" s="0"/>
+      <c r="FF22" s="0"/>
+      <c r="FG22" s="0"/>
+      <c r="FH22" s="0"/>
+      <c r="FI22" s="0"/>
+      <c r="FJ22" s="0"/>
+      <c r="FK22" s="0"/>
+      <c r="FL22" s="0"/>
+      <c r="FM22" s="0"/>
+      <c r="FN22" s="0"/>
+      <c r="FO22" s="0"/>
+      <c r="FP22" s="0"/>
+      <c r="FQ22" s="0"/>
+      <c r="FR22" s="0"/>
+      <c r="FS22" s="0"/>
+      <c r="FT22" s="0"/>
+      <c r="FU22" s="0"/>
+      <c r="FV22" s="0"/>
+      <c r="FW22" s="0"/>
+      <c r="FX22" s="0"/>
+      <c r="FY22" s="0"/>
+      <c r="FZ22" s="0"/>
+      <c r="GA22" s="0"/>
+      <c r="GB22" s="0"/>
+      <c r="GC22" s="0"/>
+      <c r="GD22" s="0"/>
+      <c r="GE22" s="0"/>
+      <c r="GF22" s="0"/>
+      <c r="GG22" s="0"/>
+      <c r="GH22" s="0"/>
+      <c r="GI22" s="0"/>
+      <c r="GJ22" s="0"/>
+      <c r="GK22" s="0"/>
+      <c r="GL22" s="0"/>
+      <c r="GM22" s="0"/>
+      <c r="GN22" s="0"/>
+      <c r="GO22" s="0"/>
+      <c r="GP22" s="0"/>
+      <c r="GQ22" s="0"/>
+      <c r="GR22" s="0"/>
+      <c r="GS22" s="0"/>
+      <c r="GT22" s="0"/>
+      <c r="GU22" s="0"/>
+      <c r="GV22" s="0"/>
+      <c r="GW22" s="0"/>
+      <c r="GX22" s="0"/>
+      <c r="GY22" s="0"/>
+      <c r="GZ22" s="0"/>
+      <c r="HA22" s="0"/>
+      <c r="HB22" s="0"/>
+      <c r="HC22" s="0"/>
+      <c r="HD22" s="0"/>
+      <c r="HE22" s="0"/>
+      <c r="HF22" s="0"/>
+      <c r="HG22" s="0"/>
+      <c r="HH22" s="0"/>
+      <c r="HI22" s="0"/>
+      <c r="HJ22" s="0"/>
+      <c r="HK22" s="0"/>
+      <c r="HL22" s="0"/>
+      <c r="HM22" s="0"/>
+      <c r="HN22" s="0"/>
+      <c r="HO22" s="0"/>
+      <c r="HP22" s="0"/>
+      <c r="HQ22" s="0"/>
+      <c r="HR22" s="0"/>
+      <c r="HS22" s="0"/>
+      <c r="HT22" s="0"/>
+      <c r="HU22" s="0"/>
+      <c r="HV22" s="0"/>
+      <c r="HW22" s="0"/>
+      <c r="HX22" s="0"/>
+      <c r="HY22" s="0"/>
+      <c r="HZ22" s="0"/>
+      <c r="IA22" s="0"/>
+      <c r="IB22" s="0"/>
+      <c r="IC22" s="0"/>
+      <c r="ID22" s="0"/>
+      <c r="IE22" s="0"/>
+      <c r="IF22" s="0"/>
+      <c r="IG22" s="0"/>
+      <c r="IH22" s="0"/>
+      <c r="II22" s="0"/>
+      <c r="IJ22" s="0"/>
+      <c r="IK22" s="0"/>
+      <c r="IL22" s="0"/>
+      <c r="IM22" s="0"/>
+      <c r="IN22" s="0"/>
+      <c r="IO22" s="0"/>
+      <c r="IP22" s="0"/>
+      <c r="IQ22" s="0"/>
+      <c r="IR22" s="0"/>
+      <c r="IS22" s="0"/>
+      <c r="IT22" s="0"/>
+      <c r="IU22" s="0"/>
+      <c r="IV22" s="0"/>
+      <c r="IW22" s="0"/>
+      <c r="IX22" s="0"/>
+      <c r="IY22" s="0"/>
+      <c r="IZ22" s="0"/>
+      <c r="JA22" s="0"/>
+      <c r="JB22" s="0"/>
+      <c r="JC22" s="0"/>
+      <c r="JD22" s="0"/>
+      <c r="JE22" s="0"/>
+      <c r="JF22" s="0"/>
+      <c r="JG22" s="0"/>
+      <c r="JH22" s="0"/>
+      <c r="JI22" s="0"/>
+      <c r="JJ22" s="0"/>
+      <c r="JK22" s="0"/>
+      <c r="JL22" s="0"/>
+      <c r="JM22" s="0"/>
+      <c r="JN22" s="0"/>
+      <c r="JO22" s="0"/>
+      <c r="JP22" s="0"/>
+      <c r="JQ22" s="0"/>
+      <c r="JR22" s="0"/>
+      <c r="JS22" s="0"/>
+      <c r="JT22" s="0"/>
+      <c r="JU22" s="0"/>
+      <c r="JV22" s="0"/>
+      <c r="JW22" s="0"/>
+      <c r="JX22" s="0"/>
+      <c r="JY22" s="0"/>
+      <c r="JZ22" s="0"/>
+      <c r="KA22" s="0"/>
+      <c r="KB22" s="0"/>
+      <c r="KC22" s="0"/>
+      <c r="KD22" s="0"/>
+      <c r="KE22" s="0"/>
+      <c r="KF22" s="0"/>
+      <c r="KG22" s="0"/>
+      <c r="KH22" s="0"/>
+      <c r="KI22" s="0"/>
+      <c r="KJ22" s="0"/>
+      <c r="KK22" s="0"/>
+      <c r="KL22" s="0"/>
+      <c r="KM22" s="0"/>
+      <c r="KN22" s="0"/>
+      <c r="KO22" s="0"/>
+      <c r="KP22" s="0"/>
+      <c r="KQ22" s="0"/>
+      <c r="KR22" s="0"/>
+      <c r="KS22" s="0"/>
+      <c r="KT22" s="0"/>
+      <c r="KU22" s="0"/>
+      <c r="KV22" s="0"/>
+      <c r="KW22" s="0"/>
+      <c r="KX22" s="0"/>
+      <c r="KY22" s="0"/>
+      <c r="KZ22" s="0"/>
+      <c r="LA22" s="0"/>
+      <c r="LB22" s="0"/>
+      <c r="LC22" s="0"/>
+      <c r="LD22" s="0"/>
+      <c r="LE22" s="0"/>
+      <c r="LF22" s="0"/>
+      <c r="LG22" s="0"/>
+      <c r="LH22" s="0"/>
+      <c r="LI22" s="0"/>
+      <c r="LJ22" s="0"/>
+      <c r="LK22" s="0"/>
+      <c r="LL22" s="0"/>
+      <c r="LM22" s="0"/>
+      <c r="LN22" s="0"/>
+      <c r="LO22" s="0"/>
+      <c r="LP22" s="0"/>
+      <c r="LQ22" s="0"/>
+      <c r="LR22" s="0"/>
+      <c r="LS22" s="0"/>
+      <c r="LT22" s="0"/>
+      <c r="LU22" s="0"/>
+      <c r="LV22" s="0"/>
+      <c r="LW22" s="0"/>
+      <c r="LX22" s="0"/>
+      <c r="LY22" s="0"/>
+      <c r="LZ22" s="0"/>
+      <c r="MA22" s="0"/>
+      <c r="MB22" s="0"/>
+      <c r="MC22" s="0"/>
+      <c r="MD22" s="0"/>
+      <c r="ME22" s="0"/>
+      <c r="MF22" s="0"/>
+      <c r="MG22" s="0"/>
+      <c r="MH22" s="0"/>
+      <c r="MI22" s="0"/>
+      <c r="MJ22" s="0"/>
+      <c r="MK22" s="0"/>
+      <c r="ML22" s="0"/>
+      <c r="MM22" s="0"/>
+      <c r="MN22" s="0"/>
+      <c r="MO22" s="0"/>
+      <c r="MP22" s="0"/>
+      <c r="MQ22" s="0"/>
+      <c r="MR22" s="0"/>
+      <c r="MS22" s="0"/>
+      <c r="MT22" s="0"/>
+      <c r="MU22" s="0"/>
+      <c r="MV22" s="0"/>
+      <c r="MW22" s="0"/>
+      <c r="MX22" s="0"/>
+      <c r="MY22" s="0"/>
+      <c r="MZ22" s="0"/>
+      <c r="NA22" s="0"/>
+      <c r="NB22" s="0"/>
+      <c r="NC22" s="0"/>
+      <c r="ND22" s="0"/>
+      <c r="NE22" s="0"/>
+      <c r="NF22" s="0"/>
+      <c r="NG22" s="0"/>
+      <c r="NH22" s="0"/>
+      <c r="NI22" s="0"/>
+      <c r="NJ22" s="0"/>
+      <c r="NK22" s="0"/>
+      <c r="NL22" s="0"/>
+      <c r="NM22" s="0"/>
+      <c r="NN22" s="0"/>
+      <c r="NO22" s="0"/>
+      <c r="NP22" s="0"/>
+      <c r="NQ22" s="0"/>
+      <c r="NR22" s="0"/>
+      <c r="NS22" s="0"/>
+      <c r="NT22" s="0"/>
+      <c r="NU22" s="0"/>
+      <c r="NV22" s="0"/>
+      <c r="NW22" s="0"/>
+      <c r="NX22" s="0"/>
+      <c r="NY22" s="0"/>
+      <c r="NZ22" s="0"/>
+      <c r="OA22" s="0"/>
+      <c r="OB22" s="0"/>
+      <c r="OC22" s="0"/>
+      <c r="OD22" s="0"/>
+      <c r="OE22" s="0"/>
+      <c r="OF22" s="0"/>
+      <c r="OG22" s="0"/>
+      <c r="OH22" s="0"/>
+      <c r="OI22" s="0"/>
+      <c r="OJ22" s="0"/>
+      <c r="OK22" s="0"/>
+      <c r="OL22" s="0"/>
+      <c r="OM22" s="0"/>
+      <c r="ON22" s="0"/>
+      <c r="OO22" s="0"/>
+      <c r="OP22" s="0"/>
+      <c r="OQ22" s="0"/>
+      <c r="OR22" s="0"/>
+      <c r="OS22" s="0"/>
+      <c r="OT22" s="0"/>
+      <c r="OU22" s="0"/>
+      <c r="OV22" s="0"/>
+      <c r="OW22" s="0"/>
+      <c r="OX22" s="0"/>
+      <c r="OY22" s="0"/>
+      <c r="OZ22" s="0"/>
+      <c r="PA22" s="0"/>
+      <c r="PB22" s="0"/>
+      <c r="PC22" s="0"/>
+      <c r="PD22" s="0"/>
+      <c r="PE22" s="0"/>
+      <c r="PF22" s="0"/>
+      <c r="PG22" s="0"/>
+      <c r="PH22" s="0"/>
+      <c r="PI22" s="0"/>
+      <c r="PJ22" s="0"/>
+      <c r="PK22" s="0"/>
+      <c r="PL22" s="0"/>
+      <c r="PM22" s="0"/>
+      <c r="PN22" s="0"/>
+      <c r="PO22" s="0"/>
+      <c r="PP22" s="0"/>
+      <c r="PQ22" s="0"/>
+      <c r="PR22" s="0"/>
+      <c r="PS22" s="0"/>
+      <c r="PT22" s="0"/>
+      <c r="PU22" s="0"/>
+      <c r="PV22" s="0"/>
+      <c r="PW22" s="0"/>
+      <c r="PX22" s="0"/>
+      <c r="PY22" s="0"/>
+      <c r="PZ22" s="0"/>
+      <c r="QA22" s="0"/>
+      <c r="QB22" s="0"/>
+      <c r="QC22" s="0"/>
+      <c r="QD22" s="0"/>
+      <c r="QE22" s="0"/>
+      <c r="QF22" s="0"/>
+      <c r="QG22" s="0"/>
+      <c r="QH22" s="0"/>
+      <c r="QI22" s="0"/>
+      <c r="QJ22" s="0"/>
+      <c r="QK22" s="0"/>
+      <c r="QL22" s="0"/>
+      <c r="QM22" s="0"/>
+      <c r="QN22" s="0"/>
+      <c r="QO22" s="0"/>
+      <c r="QP22" s="0"/>
+      <c r="QQ22" s="0"/>
+      <c r="QR22" s="0"/>
+      <c r="QS22" s="0"/>
+      <c r="QT22" s="0"/>
+      <c r="QU22" s="0"/>
+      <c r="QV22" s="0"/>
+      <c r="QW22" s="0"/>
+      <c r="QX22" s="0"/>
+      <c r="QY22" s="0"/>
+      <c r="QZ22" s="0"/>
+      <c r="RA22" s="0"/>
+      <c r="RB22" s="0"/>
+      <c r="RC22" s="0"/>
+      <c r="RD22" s="0"/>
+      <c r="RE22" s="0"/>
+      <c r="RF22" s="0"/>
+      <c r="RG22" s="0"/>
+      <c r="RH22" s="0"/>
+      <c r="RI22" s="0"/>
+      <c r="RJ22" s="0"/>
+      <c r="RK22" s="0"/>
+      <c r="RL22" s="0"/>
+      <c r="RM22" s="0"/>
+      <c r="RN22" s="0"/>
+      <c r="RO22" s="0"/>
+      <c r="RP22" s="0"/>
+      <c r="RQ22" s="0"/>
+      <c r="RR22" s="0"/>
+      <c r="RS22" s="0"/>
+      <c r="RT22" s="0"/>
+      <c r="RU22" s="0"/>
+      <c r="RV22" s="0"/>
+      <c r="RW22" s="0"/>
+      <c r="RX22" s="0"/>
+      <c r="RY22" s="0"/>
+      <c r="RZ22" s="0"/>
+      <c r="SA22" s="0"/>
+      <c r="SB22" s="0"/>
+      <c r="SC22" s="0"/>
+      <c r="SD22" s="0"/>
+      <c r="SE22" s="0"/>
+      <c r="SF22" s="0"/>
+      <c r="SG22" s="0"/>
+      <c r="SH22" s="0"/>
+      <c r="SI22" s="0"/>
+      <c r="SJ22" s="0"/>
+      <c r="SK22" s="0"/>
+      <c r="SL22" s="0"/>
+      <c r="SM22" s="0"/>
+      <c r="SN22" s="0"/>
+      <c r="SO22" s="0"/>
+      <c r="SP22" s="0"/>
+      <c r="SQ22" s="0"/>
+      <c r="SR22" s="0"/>
+      <c r="SS22" s="0"/>
+      <c r="ST22" s="0"/>
+      <c r="SU22" s="0"/>
+      <c r="SV22" s="0"/>
+      <c r="SW22" s="0"/>
+      <c r="SX22" s="0"/>
+      <c r="SY22" s="0"/>
+      <c r="SZ22" s="0"/>
+      <c r="TA22" s="0"/>
+      <c r="TB22" s="0"/>
+      <c r="TC22" s="0"/>
+      <c r="TD22" s="0"/>
+      <c r="TE22" s="0"/>
+      <c r="TF22" s="0"/>
+      <c r="TG22" s="0"/>
+      <c r="TH22" s="0"/>
+      <c r="TI22" s="0"/>
+      <c r="TJ22" s="0"/>
+      <c r="TK22" s="0"/>
+      <c r="TL22" s="0"/>
+      <c r="TM22" s="0"/>
+      <c r="TN22" s="0"/>
+      <c r="TO22" s="0"/>
+      <c r="TP22" s="0"/>
+      <c r="TQ22" s="0"/>
+      <c r="TR22" s="0"/>
+      <c r="TS22" s="0"/>
+      <c r="TT22" s="0"/>
+      <c r="TU22" s="0"/>
+      <c r="TV22" s="0"/>
+      <c r="TW22" s="0"/>
+      <c r="TX22" s="0"/>
+      <c r="TY22" s="0"/>
+      <c r="TZ22" s="0"/>
+      <c r="UA22" s="0"/>
+      <c r="UB22" s="0"/>
+      <c r="UC22" s="0"/>
+      <c r="UD22" s="0"/>
+      <c r="UE22" s="0"/>
+      <c r="UF22" s="0"/>
+      <c r="UG22" s="0"/>
+      <c r="UH22" s="0"/>
+      <c r="UI22" s="0"/>
+      <c r="UJ22" s="0"/>
+      <c r="UK22" s="0"/>
+      <c r="UL22" s="0"/>
+      <c r="UM22" s="0"/>
+      <c r="UN22" s="0"/>
+      <c r="UO22" s="0"/>
+      <c r="UP22" s="0"/>
+      <c r="UQ22" s="0"/>
+      <c r="UR22" s="0"/>
+      <c r="US22" s="0"/>
+      <c r="UT22" s="0"/>
+      <c r="UU22" s="0"/>
+      <c r="UV22" s="0"/>
+      <c r="UW22" s="0"/>
+      <c r="UX22" s="0"/>
+      <c r="UY22" s="0"/>
+      <c r="UZ22" s="0"/>
+      <c r="VA22" s="0"/>
+      <c r="VB22" s="0"/>
+      <c r="VC22" s="0"/>
+      <c r="VD22" s="0"/>
+      <c r="VE22" s="0"/>
+      <c r="VF22" s="0"/>
+      <c r="VG22" s="0"/>
+      <c r="VH22" s="0"/>
+      <c r="VI22" s="0"/>
+      <c r="VJ22" s="0"/>
+      <c r="VK22" s="0"/>
+      <c r="VL22" s="0"/>
+      <c r="VM22" s="0"/>
+      <c r="VN22" s="0"/>
+      <c r="VO22" s="0"/>
+      <c r="VP22" s="0"/>
+      <c r="VQ22" s="0"/>
+      <c r="VR22" s="0"/>
+      <c r="VS22" s="0"/>
+      <c r="VT22" s="0"/>
+      <c r="VU22" s="0"/>
+      <c r="VV22" s="0"/>
+      <c r="VW22" s="0"/>
+      <c r="VX22" s="0"/>
+      <c r="VY22" s="0"/>
+      <c r="VZ22" s="0"/>
+      <c r="WA22" s="0"/>
+      <c r="WB22" s="0"/>
+      <c r="WC22" s="0"/>
+      <c r="WD22" s="0"/>
+      <c r="WE22" s="0"/>
+      <c r="WF22" s="0"/>
+      <c r="WG22" s="0"/>
+      <c r="WH22" s="0"/>
+      <c r="WI22" s="0"/>
+      <c r="WJ22" s="0"/>
+      <c r="WK22" s="0"/>
+      <c r="WL22" s="0"/>
+      <c r="WM22" s="0"/>
+      <c r="WN22" s="0"/>
+      <c r="WO22" s="0"/>
+      <c r="WP22" s="0"/>
+      <c r="WQ22" s="0"/>
+      <c r="WR22" s="0"/>
+      <c r="WS22" s="0"/>
+      <c r="WT22" s="0"/>
+      <c r="WU22" s="0"/>
+      <c r="WV22" s="0"/>
+      <c r="WW22" s="0"/>
+      <c r="WX22" s="0"/>
+      <c r="WY22" s="0"/>
+      <c r="WZ22" s="0"/>
+      <c r="XA22" s="0"/>
+      <c r="XB22" s="0"/>
+      <c r="XC22" s="0"/>
+      <c r="XD22" s="0"/>
+      <c r="XE22" s="0"/>
+      <c r="XF22" s="0"/>
+      <c r="XG22" s="0"/>
+      <c r="XH22" s="0"/>
+      <c r="XI22" s="0"/>
+      <c r="XJ22" s="0"/>
+      <c r="XK22" s="0"/>
+      <c r="XL22" s="0"/>
+      <c r="XM22" s="0"/>
+      <c r="XN22" s="0"/>
+      <c r="XO22" s="0"/>
+      <c r="XP22" s="0"/>
+      <c r="XQ22" s="0"/>
+      <c r="XR22" s="0"/>
+      <c r="XS22" s="0"/>
+      <c r="XT22" s="0"/>
+      <c r="XU22" s="0"/>
+      <c r="XV22" s="0"/>
+      <c r="XW22" s="0"/>
+      <c r="XX22" s="0"/>
+      <c r="XY22" s="0"/>
+      <c r="XZ22" s="0"/>
+      <c r="YA22" s="0"/>
+      <c r="YB22" s="0"/>
+      <c r="YC22" s="0"/>
+      <c r="YD22" s="0"/>
+      <c r="YE22" s="0"/>
+      <c r="YF22" s="0"/>
+      <c r="YG22" s="0"/>
+      <c r="YH22" s="0"/>
+      <c r="YI22" s="0"/>
+      <c r="YJ22" s="0"/>
+      <c r="YK22" s="0"/>
+      <c r="YL22" s="0"/>
+      <c r="YM22" s="0"/>
+      <c r="YN22" s="0"/>
+      <c r="YO22" s="0"/>
+      <c r="YP22" s="0"/>
+      <c r="YQ22" s="0"/>
+      <c r="YR22" s="0"/>
+      <c r="YS22" s="0"/>
+      <c r="YT22" s="0"/>
+      <c r="YU22" s="0"/>
+      <c r="YV22" s="0"/>
+      <c r="YW22" s="0"/>
+      <c r="YX22" s="0"/>
+      <c r="YY22" s="0"/>
+      <c r="YZ22" s="0"/>
+      <c r="ZA22" s="0"/>
+      <c r="ZB22" s="0"/>
+      <c r="ZC22" s="0"/>
+      <c r="ZD22" s="0"/>
+      <c r="ZE22" s="0"/>
+      <c r="ZF22" s="0"/>
+      <c r="ZG22" s="0"/>
+      <c r="ZH22" s="0"/>
+      <c r="ZI22" s="0"/>
+      <c r="ZJ22" s="0"/>
+      <c r="ZK22" s="0"/>
+      <c r="ZL22" s="0"/>
+      <c r="ZM22" s="0"/>
+      <c r="ZN22" s="0"/>
+      <c r="ZO22" s="0"/>
+      <c r="ZP22" s="0"/>
+      <c r="ZQ22" s="0"/>
+      <c r="ZR22" s="0"/>
+      <c r="ZS22" s="0"/>
+      <c r="ZT22" s="0"/>
+      <c r="ZU22" s="0"/>
+      <c r="ZV22" s="0"/>
+      <c r="ZW22" s="0"/>
+      <c r="ZX22" s="0"/>
+      <c r="ZY22" s="0"/>
+      <c r="ZZ22" s="0"/>
+      <c r="AAA22" s="0"/>
+      <c r="AAB22" s="0"/>
+      <c r="AAC22" s="0"/>
+      <c r="AAD22" s="0"/>
+      <c r="AAE22" s="0"/>
+      <c r="AAF22" s="0"/>
+      <c r="AAG22" s="0"/>
+      <c r="AAH22" s="0"/>
+      <c r="AAI22" s="0"/>
+      <c r="AAJ22" s="0"/>
+      <c r="AAK22" s="0"/>
+      <c r="AAL22" s="0"/>
+      <c r="AAM22" s="0"/>
+      <c r="AAN22" s="0"/>
+      <c r="AAO22" s="0"/>
+      <c r="AAP22" s="0"/>
+      <c r="AAQ22" s="0"/>
+      <c r="AAR22" s="0"/>
+      <c r="AAS22" s="0"/>
+      <c r="AAT22" s="0"/>
+      <c r="AAU22" s="0"/>
+      <c r="AAV22" s="0"/>
+      <c r="AAW22" s="0"/>
+      <c r="AAX22" s="0"/>
+      <c r="AAY22" s="0"/>
+      <c r="AAZ22" s="0"/>
+      <c r="ABA22" s="0"/>
+      <c r="ABB22" s="0"/>
+      <c r="ABC22" s="0"/>
+      <c r="ABD22" s="0"/>
+      <c r="ABE22" s="0"/>
+      <c r="ABF22" s="0"/>
+      <c r="ABG22" s="0"/>
+      <c r="ABH22" s="0"/>
+      <c r="ABI22" s="0"/>
+      <c r="ABJ22" s="0"/>
+      <c r="ABK22" s="0"/>
+      <c r="ABL22" s="0"/>
+      <c r="ABM22" s="0"/>
+      <c r="ABN22" s="0"/>
+      <c r="ABO22" s="0"/>
+      <c r="ABP22" s="0"/>
+      <c r="ABQ22" s="0"/>
+      <c r="ABR22" s="0"/>
+      <c r="ABS22" s="0"/>
+      <c r="ABT22" s="0"/>
+      <c r="ABU22" s="0"/>
+      <c r="ABV22" s="0"/>
+      <c r="ABW22" s="0"/>
+      <c r="ABX22" s="0"/>
+      <c r="ABY22" s="0"/>
+      <c r="ABZ22" s="0"/>
+      <c r="ACA22" s="0"/>
+      <c r="ACB22" s="0"/>
+      <c r="ACC22" s="0"/>
+      <c r="ACD22" s="0"/>
+      <c r="ACE22" s="0"/>
+      <c r="ACF22" s="0"/>
+      <c r="ACG22" s="0"/>
+      <c r="ACH22" s="0"/>
+      <c r="ACI22" s="0"/>
+      <c r="ACJ22" s="0"/>
+      <c r="ACK22" s="0"/>
+      <c r="ACL22" s="0"/>
+      <c r="ACM22" s="0"/>
+      <c r="ACN22" s="0"/>
+      <c r="ACO22" s="0"/>
+      <c r="ACP22" s="0"/>
+      <c r="ACQ22" s="0"/>
+      <c r="ACR22" s="0"/>
+      <c r="ACS22" s="0"/>
+      <c r="ACT22" s="0"/>
+      <c r="ACU22" s="0"/>
+      <c r="ACV22" s="0"/>
+      <c r="ACW22" s="0"/>
+      <c r="ACX22" s="0"/>
+      <c r="ACY22" s="0"/>
+      <c r="ACZ22" s="0"/>
+      <c r="ADA22" s="0"/>
+      <c r="ADB22" s="0"/>
+      <c r="ADC22" s="0"/>
+      <c r="ADD22" s="0"/>
+      <c r="ADE22" s="0"/>
+      <c r="ADF22" s="0"/>
+      <c r="ADG22" s="0"/>
+      <c r="ADH22" s="0"/>
+      <c r="ADI22" s="0"/>
+      <c r="ADJ22" s="0"/>
+      <c r="ADK22" s="0"/>
+      <c r="ADL22" s="0"/>
+      <c r="ADM22" s="0"/>
+      <c r="ADN22" s="0"/>
+      <c r="ADO22" s="0"/>
+      <c r="ADP22" s="0"/>
+      <c r="ADQ22" s="0"/>
+      <c r="ADR22" s="0"/>
+      <c r="ADS22" s="0"/>
+      <c r="ADT22" s="0"/>
+      <c r="ADU22" s="0"/>
+      <c r="ADV22" s="0"/>
+      <c r="ADW22" s="0"/>
+      <c r="ADX22" s="0"/>
+      <c r="ADY22" s="0"/>
+      <c r="ADZ22" s="0"/>
+      <c r="AEA22" s="0"/>
+      <c r="AEB22" s="0"/>
+      <c r="AEC22" s="0"/>
+      <c r="AED22" s="0"/>
+      <c r="AEE22" s="0"/>
+      <c r="AEF22" s="0"/>
+      <c r="AEG22" s="0"/>
+      <c r="AEH22" s="0"/>
+      <c r="AEI22" s="0"/>
+      <c r="AEJ22" s="0"/>
+      <c r="AEK22" s="0"/>
+      <c r="AEL22" s="0"/>
+      <c r="AEM22" s="0"/>
+      <c r="AEN22" s="0"/>
+      <c r="AEO22" s="0"/>
+      <c r="AEP22" s="0"/>
+      <c r="AEQ22" s="0"/>
+      <c r="AER22" s="0"/>
+      <c r="AES22" s="0"/>
+      <c r="AET22" s="0"/>
+      <c r="AEU22" s="0"/>
+      <c r="AEV22" s="0"/>
+      <c r="AEW22" s="0"/>
+      <c r="AEX22" s="0"/>
+      <c r="AEY22" s="0"/>
+      <c r="AEZ22" s="0"/>
+      <c r="AFA22" s="0"/>
+      <c r="AFB22" s="0"/>
+      <c r="AFC22" s="0"/>
+      <c r="AFD22" s="0"/>
+      <c r="AFE22" s="0"/>
+      <c r="AFF22" s="0"/>
+      <c r="AFG22" s="0"/>
+      <c r="AFH22" s="0"/>
+      <c r="AFI22" s="0"/>
+      <c r="AFJ22" s="0"/>
+      <c r="AFK22" s="0"/>
+      <c r="AFL22" s="0"/>
+      <c r="AFM22" s="0"/>
+      <c r="AFN22" s="0"/>
+      <c r="AFO22" s="0"/>
+      <c r="AFP22" s="0"/>
+      <c r="AFQ22" s="0"/>
+      <c r="AFR22" s="0"/>
+      <c r="AFS22" s="0"/>
+      <c r="AFT22" s="0"/>
+      <c r="AFU22" s="0"/>
+      <c r="AFV22" s="0"/>
+      <c r="AFW22" s="0"/>
+      <c r="AFX22" s="0"/>
+      <c r="AFY22" s="0"/>
+      <c r="AFZ22" s="0"/>
+      <c r="AGA22" s="0"/>
+      <c r="AGB22" s="0"/>
+      <c r="AGC22" s="0"/>
+      <c r="AGD22" s="0"/>
+      <c r="AGE22" s="0"/>
+      <c r="AGF22" s="0"/>
+      <c r="AGG22" s="0"/>
+      <c r="AGH22" s="0"/>
+      <c r="AGI22" s="0"/>
+      <c r="AGJ22" s="0"/>
+      <c r="AGK22" s="0"/>
+      <c r="AGL22" s="0"/>
+      <c r="AGM22" s="0"/>
+      <c r="AGN22" s="0"/>
+      <c r="AGO22" s="0"/>
+      <c r="AGP22" s="0"/>
+      <c r="AGQ22" s="0"/>
+      <c r="AGR22" s="0"/>
+      <c r="AGS22" s="0"/>
+      <c r="AGT22" s="0"/>
+      <c r="AGU22" s="0"/>
+      <c r="AGV22" s="0"/>
+      <c r="AGW22" s="0"/>
+      <c r="AGX22" s="0"/>
+      <c r="AGY22" s="0"/>
+      <c r="AGZ22" s="0"/>
+      <c r="AHA22" s="0"/>
+      <c r="AHB22" s="0"/>
+      <c r="AHC22" s="0"/>
+      <c r="AHD22" s="0"/>
+      <c r="AHE22" s="0"/>
+      <c r="AHF22" s="0"/>
+      <c r="AHG22" s="0"/>
+      <c r="AHH22" s="0"/>
+      <c r="AHI22" s="0"/>
+      <c r="AHJ22" s="0"/>
+      <c r="AHK22" s="0"/>
+      <c r="AHL22" s="0"/>
+      <c r="AHM22" s="0"/>
+      <c r="AHN22" s="0"/>
+      <c r="AHO22" s="0"/>
+      <c r="AHP22" s="0"/>
+      <c r="AHQ22" s="0"/>
+      <c r="AHR22" s="0"/>
+      <c r="AHS22" s="0"/>
+      <c r="AHT22" s="0"/>
+      <c r="AHU22" s="0"/>
+      <c r="AHV22" s="0"/>
+      <c r="AHW22" s="0"/>
+      <c r="AHX22" s="0"/>
+      <c r="AHY22" s="0"/>
+      <c r="AHZ22" s="0"/>
+      <c r="AIA22" s="0"/>
+      <c r="AIB22" s="0"/>
+      <c r="AIC22" s="0"/>
+      <c r="AID22" s="0"/>
+      <c r="AIE22" s="0"/>
+      <c r="AIF22" s="0"/>
+      <c r="AIG22" s="0"/>
+      <c r="AIH22" s="0"/>
+      <c r="AII22" s="0"/>
+      <c r="AIJ22" s="0"/>
+      <c r="AIK22" s="0"/>
+      <c r="AIL22" s="0"/>
+      <c r="AIM22" s="0"/>
+      <c r="AIN22" s="0"/>
+      <c r="AIO22" s="0"/>
+      <c r="AIP22" s="0"/>
+      <c r="AIQ22" s="0"/>
+      <c r="AIR22" s="0"/>
+      <c r="AIS22" s="0"/>
+      <c r="AIT22" s="0"/>
+      <c r="AIU22" s="0"/>
+      <c r="AIV22" s="0"/>
+      <c r="AIW22" s="0"/>
+      <c r="AIX22" s="0"/>
+      <c r="AIY22" s="0"/>
+      <c r="AIZ22" s="0"/>
+      <c r="AJA22" s="0"/>
+      <c r="AJB22" s="0"/>
+      <c r="AJC22" s="0"/>
+      <c r="AJD22" s="0"/>
+      <c r="AJE22" s="0"/>
+      <c r="AJF22" s="0"/>
+      <c r="AJG22" s="0"/>
+      <c r="AJH22" s="0"/>
+      <c r="AJI22" s="0"/>
+      <c r="AJJ22" s="0"/>
+      <c r="AJK22" s="0"/>
+      <c r="AJL22" s="0"/>
+      <c r="AJM22" s="0"/>
+      <c r="AJN22" s="0"/>
+      <c r="AJO22" s="0"/>
+      <c r="AJP22" s="0"/>
+      <c r="AJQ22" s="0"/>
+      <c r="AJR22" s="0"/>
+      <c r="AJS22" s="0"/>
+      <c r="AJT22" s="0"/>
+      <c r="AJU22" s="0"/>
+      <c r="AJV22" s="0"/>
+      <c r="AJW22" s="0"/>
+      <c r="AJX22" s="0"/>
+      <c r="AJY22" s="0"/>
+      <c r="AJZ22" s="0"/>
+      <c r="AKA22" s="0"/>
+      <c r="AKB22" s="0"/>
+      <c r="AKC22" s="0"/>
+      <c r="AKD22" s="0"/>
+      <c r="AKE22" s="0"/>
+      <c r="AKF22" s="0"/>
+      <c r="AKG22" s="0"/>
+      <c r="AKH22" s="0"/>
+      <c r="AKI22" s="0"/>
+      <c r="AKJ22" s="0"/>
+      <c r="AKK22" s="0"/>
+      <c r="AKL22" s="0"/>
+      <c r="AKM22" s="0"/>
+      <c r="AKN22" s="0"/>
+      <c r="AKO22" s="0"/>
+      <c r="AKP22" s="0"/>
+      <c r="AKQ22" s="0"/>
+      <c r="AKR22" s="0"/>
+      <c r="AKS22" s="0"/>
+      <c r="AKT22" s="0"/>
+      <c r="AKU22" s="0"/>
+      <c r="AKV22" s="0"/>
+      <c r="AKW22" s="0"/>
+      <c r="AKX22" s="0"/>
+      <c r="AKY22" s="0"/>
+      <c r="AKZ22" s="0"/>
+      <c r="ALA22" s="0"/>
+      <c r="ALB22" s="0"/>
+      <c r="ALC22" s="0"/>
+      <c r="ALD22" s="0"/>
+      <c r="ALE22" s="0"/>
+      <c r="ALF22" s="0"/>
+      <c r="ALG22" s="0"/>
+      <c r="ALH22" s="0"/>
+      <c r="ALI22" s="0"/>
+      <c r="ALJ22" s="0"/>
+      <c r="ALK22" s="0"/>
+      <c r="ALL22" s="0"/>
+      <c r="ALM22" s="0"/>
+      <c r="ALN22" s="0"/>
+      <c r="ALO22" s="0"/>
+      <c r="ALP22" s="0"/>
+      <c r="ALQ22" s="0"/>
+      <c r="ALR22" s="0"/>
+      <c r="ALS22" s="0"/>
+      <c r="ALT22" s="0"/>
+      <c r="ALU22" s="0"/>
+      <c r="ALV22" s="0"/>
+      <c r="ALW22" s="0"/>
+      <c r="ALX22" s="0"/>
+      <c r="ALY22" s="0"/>
+      <c r="ALZ22" s="0"/>
+      <c r="AMA22" s="0"/>
+      <c r="AMB22" s="0"/>
+      <c r="AMC22" s="0"/>
+      <c r="AMD22" s="0"/>
+      <c r="AME22" s="0"/>
+      <c r="AMF22" s="0"/>
+      <c r="AMG22" s="0"/>
+      <c r="AMH22" s="0"/>
+      <c r="AMI22" s="0"/>
+      <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
